--- a/pitcher_matchups_2025-08-24.xlsx
+++ b/pitcher_matchups_2025-08-24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>StartTime</t>
   </si>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>Switch</t>
+  </si>
+  <si>
+    <t>Jack Suwinski (RF)
+Spencer Horwitz (1B)</t>
   </si>
   <si>
     <t>Brandon Marsh (CF)
@@ -281,13 +285,6 @@
 Cedric Mullins (CF)
 Jeff McNeil (2B)
 Juan Soto (RF)</t>
-  </si>
-  <si>
-    <t>Kyle Tucker (RF)
-Michael Busch (1B)
-Owen Caissie (RF)
-Pete Crow-Armstrong (CF)
-Reese McGuire (C)</t>
   </si>
   <si>
     <t>Alexander Canario (LF)
@@ -318,10 +315,6 @@
   <si>
     <t>Francisco Lindor (SS)
 Ronny Mauricio (3B)</t>
-  </si>
-  <si>
-    <t>Ian Happ (LF)
-Willi Castro (LF)</t>
   </si>
   <si>
     <t>Best Hitter/Pitcher Matchups for August 24, 2025</t>
@@ -824,7 +817,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -835,10 +828,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -850,10 +843,10 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -861,7 +854,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>5</v>
@@ -887,7 +880,7 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
         <v>5</v>
@@ -942,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -954,7 +947,7 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -965,10 +958,10 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -991,10 +984,10 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1006,7 +999,7 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>7</v>
@@ -1017,10 +1010,10 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1032,10 +1025,10 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1043,7 +1036,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -1058,7 +1051,7 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1072,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1084,10 +1077,10 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1095,10 +1088,10 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1121,7 +1114,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
         <v>4</v>
@@ -1150,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1176,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1202,7 +1195,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1280,14 +1273,14 @@
   <cols>
     <col min="1" max="2" width="6.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="5.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1327,10 +1320,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>82</v>
@@ -1353,7 +1349,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>85</v>
@@ -1373,40 +1369,20 @@
         <v>10</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G6">
+  <conditionalFormatting sqref="A3:G5">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1420,7 +1396,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
+  <conditionalFormatting sqref="C3:C5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1436,7 +1412,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6">
+  <conditionalFormatting sqref="D3:D5">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/pitcher_matchups_2025-08-24.xlsx
+++ b/pitcher_matchups_2025-08-24.xlsx
@@ -257,7 +257,7 @@
 @ NYY</t>
   </si>
   <si>
-    <t>Data for August 24, 2025</t>
+    <t>Data for August 24, 2025 • ESPN updated Aug 24, 2025, 11:01 AM ET</t>
   </si>
   <si>
     <t>LH_Batters</t>
